--- a/randomize/learn.xlsx
+++ b/randomize/learn.xlsx
@@ -4,23 +4,37 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="for test file" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="learn 1" sheetId="2" r:id="rId2"/>
+    <sheet name="learn 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>scenario testing</t>
+  </si>
   <si>
     <t>https://medium.com/dot-intern/membuat-skenario-test-sebagai-bahan-dalam-melakukan-pengujian-aplikasi-eb6c42205a3b</t>
   </si>
   <si>
-    <r>
+    <t>https://www.autodika.com/2019/12/cara-membuat-skenario-testing.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Requirement Description</t>
     </r>
     <r>
@@ -35,6 +49,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Inputs and outputs or actions (positive-negative scenarios) and expected results.</t>
     </r>
     <r>
@@ -58,6 +79,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Updates</t>
     </r>
     <r>
@@ -72,6 +100,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Konsisten.</t>
     </r>
     <r>
@@ -95,6 +130,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Simple dan Transparan</t>
     </r>
     <r>
@@ -109,6 +151,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Mudah Dimengerti</t>
     </r>
     <r>
@@ -123,6 +172,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>End-user mind. </t>
     </r>
     <r>
@@ -140,6 +196,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Modul. </t>
     </r>
     <r>
@@ -154,6 +217,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Feature</t>
     </r>
     <r>
@@ -168,6 +238,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Test Steps. </t>
     </r>
     <r>
@@ -185,6 +262,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Expected Result.</t>
     </r>
     <r>
@@ -209,6 +293,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Status.</t>
     </r>
     <r>
@@ -233,6 +324,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color rgb="FF292929"/>
+        <rFont val="Georgia"/>
+        <charset val="134"/>
+      </rPr>
       <t>Note.</t>
     </r>
     <r>
@@ -254,6 +352,99 @@
       </rPr>
       <t>Pada kolom ini dapat diisi dengan catatan khusus jika hasil testing gagal</t>
     </r>
+  </si>
+  <si>
+    <t>Requirement’s description</t>
+  </si>
+  <si>
+    <t>Tester harus paham bagaimana cara aplikasi berjalan, paham dengan business goal dari pembuatan aplikasi tersebut sehingga pembuatan test case tidak berseberangan dengan requirement yang telah ditetapkan sebelumnya.</t>
+  </si>
+  <si>
+    <t>System explanation</t>
+  </si>
+  <si>
+    <t>Tester dapat menjelaskan ke developer mengenai aplikasi terkait, karena pada umumnya pekerjaan developer dibagi menjadi beberapa bagian dan bagian lainnya dikerjakan oleh orang lain.</t>
+  </si>
+  <si>
+    <t>Crystal clear and compact test cases</t>
+  </si>
+  <si>
+    <t>Dikarenakan pembaca test case bukan hanya tester, penggunaan bahasa dan langkah-langkah pengetesan harus jelas. Langkah pengetesan diusahakan tidak rumit dan kompleks.</t>
+  </si>
+  <si>
+    <t>Inputs and outputs or actions (positive-negative scenarios) and expected results</t>
+  </si>
+  <si>
+    <t>Tester harus memahami hasil yang tampil setelah mengeksekusi langkah-langkah yang dituliskan dalam langkah pengetesan.</t>
+  </si>
+  <si>
+    <t>Proofs</t>
+  </si>
+  <si>
+    <t>Untuk kemudahan tracking dan dokumentasi, ada baiknya tester merekam atau menyertakan bukti output dari test case yang gagal dieksekusi. Ini juga memudahkan developer dalam memperbaiki sebab kegagalan dari sistem yang sedang diuji.</t>
+  </si>
+  <si>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>Setiap tester menemukan skenario baru, ada baiknya untuk terus memperbarui test case yang sudah ada. Sehingga kemungkinan test case dapat mencakup seluruh aspek dari aplikasi, semakin besar.</t>
+  </si>
+  <si>
+    <t>Naming</t>
+  </si>
+  <si>
+    <t>Konsisten dalam penamaan pembuatan test case berguna untuk kemudahan dalam tracking. Contoh : setelah menggunakan istilah ‘Login’ kemudian muncul istilah ‘Sign In’.</t>
+  </si>
+  <si>
+    <t>Reviewing Test Case</t>
+  </si>
+  <si>
+    <t>Berikut point-point yang perlu diperhatikan untuk membuat test case yang baik:</t>
+  </si>
+  <si>
+    <t>Simple and transparent</t>
+  </si>
+  <si>
+    <t>Semua langkah pelaksanaanya pun juga harus jelas dan tidak ada yang terlewat. Contoh : untuk melakukan order, harus ‘Login’ terlebih dahulu. Apabila langkah sudah terlalu banyak, login bisa dicantumkan di pre-condition.</t>
+  </si>
+  <si>
+    <t>End-user mind</t>
+  </si>
+  <si>
+    <t>Tester bermindset bahwa ia adalah end-user. Untuk itu, kemudahan dalam penggunaan aplikasi juga perlu diperhatikan karena kepuasan konsumen adalah saat aplikasi tidak memiliki kegagalan sistem yang bisa menghambat berjalannya sistem tersebut.</t>
+  </si>
+  <si>
+    <t>Don’t assume</t>
+  </si>
+  <si>
+    <t>Tester diharapkan tidak berasumsi bahwa end-user mengerti keseluruhan dari aplikasi. Jadi usahakan susun test case walaupun hal yang termudah.</t>
+  </si>
+  <si>
+    <t>100% Coverage</t>
+  </si>
+  <si>
+    <t>Kemungkinan test case bisa mengcover 100% dari semua aspek dari aplikasi tidaklah mudah. Tetapi apabila tester terus berfokus pada kualitas testing, bukan tidak mungkin 100% coverage bisa tercapai.</t>
+  </si>
+  <si>
+    <t>Easy to understand</t>
+  </si>
+  <si>
+    <t>Pemilihan bahasa sewaktu menyusun test case juga harus diperhatikan karena pengguna test case bukan hanya tester saja. Bahasa yang sederhana dan mudah dipahami lebih disukai karena bisa dimengerti bahkan oleh end-user yang mungkin awam.</t>
+  </si>
+  <si>
+    <t>Repeatable</t>
+  </si>
+  <si>
+    <t>Artinya test case harus mempunyai kondisi hasil yang sama di seluruh platform yang sedang dites. Contoh : apabila di OS Android setelah login, maka akan tampil halaman my profile maka di iOS pun akan demikian.</t>
+  </si>
+  <si>
+    <t>Peer review</t>
+  </si>
+  <si>
+    <t>Meminta tolong pada tester lain atau orang lain untuk me-review test case yang kita susun. Apabila pemili-han bahasa yang dipilih kurang baik dan menimbul-kan banyak pertanyaan, tester perlu melakukan peru-bahan agar test case lebih mudah untuk dipaha-mi.</t>
+  </si>
+  <si>
+    <t>Skenario Testing dibagi menjadi dua skenario, skenario positive dan skenario negative, Berikut contoh Testcase simple untuk Login.</t>
   </si>
 </sst>
 </file>
@@ -266,13 +457,33 @@
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -303,6 +514,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -311,28 +552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -349,6 +568,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -359,14 +585,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,7 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,22 +637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,13 +664,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +778,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,19 +814,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,133 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,21 +869,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,6 +897,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -724,32 +955,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,138 +978,147 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -907,7 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -977,13 +1197,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1001,8 +1221,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="381000"/>
+          <a:off x="0" y="571500"/>
           <a:ext cx="12058650" cy="3667760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="14030960" cy="4857750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,10 +1538,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
@@ -1287,6 +1549,16 @@
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1573,7 @@
   <sheetPr/>
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -1311,105 +1583,280 @@
   </cols>
   <sheetData>
     <row r="1" ht="97.5" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" ht="78" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" ht="97.5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" ht="97.5" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" ht="58.5" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" ht="78" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" ht="117" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" ht="39" spans="1:1">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="58.5" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" ht="78" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" ht="58.5" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="19.5" spans="1:1">
+      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="78" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="78" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="39" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="102.571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" ht="78" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" ht="97.5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" ht="97.5" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" ht="58.5" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" ht="78" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" ht="117" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" ht="39" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" ht="58.5" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" ht="78" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" ht="58.5" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="19.5" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" ht="78" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" ht="78" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" ht="39" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="45" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:1">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" ht="23.25" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" ht="45" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:1">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" ht="45" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" ht="30" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" ht="30" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" ht="45" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" ht="45" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" ht="45" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" ht="30" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
